--- a/Informations and Research/DifferentTestSizes.xlsx
+++ b/Informations and Research/DifferentTestSizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Documents\MasterIS\project\Informations and Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A7E26C21-45A1-4E02-B1AD-026B1446C85C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C3658AB6-F407-4F2D-B5A8-F2DDB5146742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,140 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -704,7 +837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
   <dimension ref="A2:H281"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7087,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
   <dimension ref="A1:N491"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K210"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16352,13 +16487,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="7" priority="4" percent="1" rank="35"/>
+    <cfRule type="top10" dxfId="26" priority="4" percent="1" rank="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E210">
-    <cfRule type="top10" dxfId="6" priority="2" percent="1" bottom="1" rank="35"/>
+    <cfRule type="top10" dxfId="25" priority="2" percent="1" bottom="1" rank="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K210">
-    <cfRule type="top10" dxfId="5" priority="1" percent="1" rank="35"/>
+    <cfRule type="top10" dxfId="24" priority="1" percent="1" rank="35"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18060,7 +18195,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B210">
-    <cfRule type="top10" dxfId="9" priority="1" percent="1" bottom="1" rank="30"/>
+    <cfRule type="top10" dxfId="28" priority="1" percent="1" bottom="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19761,7 +19896,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="10" priority="1" rank="30"/>
+    <cfRule type="top10" dxfId="29" priority="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21459,7 +21594,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="27" priority="1" percent="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21467,15 +21602,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C631AC3-49E8-45B6-AFB4-63FC00D86B46}">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -21495,13 +21630,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>0.525204</v>
       </c>
+      <c r="C2">
+        <f>IF(B2&gt;0,1-B2,10)</f>
+        <v>0.474796</v>
+      </c>
       <c r="D2" t="s">
         <v>72</v>
       </c>
@@ -21514,14 +21653,22 @@
       <c r="H2">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>H2+E2+C2</f>
+        <v>2.458391193678513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
+      <c r="C3" t="e">
+        <f>IF(B3&gt;0,1-B3,10)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -21534,14 +21681,22 @@
       <c r="H3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I66" si="0">H3+E3+C3</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
+      <c r="C4" t="e">
+        <f t="shared" ref="C3:C5" si="1">IF(B4&gt;0,1-B4,10)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -21554,14 +21709,22 @@
       <c r="H4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.52556820000000004</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.47443179999999996</v>
+      </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
@@ -21574,14 +21737,22 @@
       <c r="H5">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2.449701898085646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
+      <c r="C6" t="e">
+        <f t="shared" ref="C3:C66" si="2">IF(B6&gt;0,1-B6,10)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -21594,14 +21765,22 @@
       <c r="H6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
       </c>
+      <c r="C7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -21614,14 +21793,22 @@
       <c r="H7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>0.51420456000000003</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.48579543999999997</v>
+      </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
@@ -21634,14 +21821,22 @@
       <c r="H8">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.494325852992858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
       </c>
+      <c r="C9" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -21654,14 +21849,22 @@
       <c r="H9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
+      <c r="C10" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -21674,14 +21877,22 @@
       <c r="H10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>0.54285717</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.45714283</v>
+      </c>
       <c r="D11" t="s">
         <v>72</v>
       </c>
@@ -21694,14 +21905,22 @@
       <c r="H11">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>2.462645869282444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
       </c>
+      <c r="C12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -21714,14 +21933,22 @@
       <c r="H12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
       </c>
+      <c r="C13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -21734,14 +21961,22 @@
       <c r="H13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
         <v>0.52428573000000001</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>0.47571426999999999</v>
+      </c>
       <c r="D14" t="s">
         <v>72</v>
       </c>
@@ -21754,14 +21989,22 @@
       <c r="H14">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2.4948440456274632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
+      <c r="C15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -21774,14 +22017,22 @@
       <c r="H15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
+      <c r="C16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -21794,14 +22045,22 @@
       <c r="H16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17">
         <v>0.53144499999999995</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>0.46855500000000005</v>
+      </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
@@ -21814,14 +22073,22 @@
       <c r="H17">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2.4518000659799197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
+      <c r="C18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -21834,14 +22101,22 @@
       <c r="H18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
       </c>
+      <c r="C19" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
@@ -21854,14 +22129,22 @@
       <c r="H19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>0.51846594000000001</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0.48153405999999999</v>
+      </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
@@ -21874,14 +22157,22 @@
       <c r="H20">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>2.4566581944384969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
+      <c r="C21" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -21894,14 +22185,22 @@
       <c r="H21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
+      <c r="C22" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
@@ -21914,14 +22213,22 @@
       <c r="H22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>0.51846594000000001</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0.48153405999999999</v>
+      </c>
       <c r="D23" t="s">
         <v>72</v>
       </c>
@@ -21934,14 +22241,22 @@
       <c r="H23">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>2.4970113862135239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
+      <c r="C24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -21954,14 +22269,22 @@
       <c r="H24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
+      <c r="C25" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
@@ -21974,14 +22297,22 @@
       <c r="H25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
         <v>0.55000000000000004</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="D26" t="s">
         <v>72</v>
       </c>
@@ -21994,14 +22325,22 @@
       <c r="H26">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>2.4561101340471545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
       </c>
+      <c r="C27" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -22014,14 +22353,22 @@
       <c r="H27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
+      <c r="C28" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
@@ -22034,14 +22381,22 @@
       <c r="H28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29">
         <v>0.51142860000000001</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0.48857139999999999</v>
+      </c>
       <c r="D29" t="s">
         <v>72</v>
       </c>
@@ -22054,14 +22409,22 @@
       <c r="H29">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>2.515569250657653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
+      <c r="C30" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -22074,14 +22437,22 @@
       <c r="H30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
+      <c r="C31" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
@@ -22094,14 +22465,22 @@
       <c r="H31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
         <v>0.53288524999999998</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0.46711475000000002</v>
+      </c>
       <c r="D32" t="s">
         <v>72</v>
       </c>
@@ -22114,14 +22493,22 @@
       <c r="H32">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>2.4506653910521989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
+      <c r="C33" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
@@ -22134,14 +22521,22 @@
       <c r="H33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
+      <c r="C34" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
@@ -22154,14 +22549,22 @@
       <c r="H34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35">
         <v>0.4375</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
       <c r="D35" t="s">
         <v>72</v>
       </c>
@@ -22174,14 +22577,22 @@
       <c r="H35">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2.6469832877308899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
+      <c r="C36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
@@ -22194,14 +22605,22 @@
       <c r="H36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
+      <c r="C37" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
@@ -22214,14 +22633,22 @@
       <c r="H37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38">
         <v>0.51136360000000003</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0.48863639999999997</v>
+      </c>
       <c r="D38" t="s">
         <v>72</v>
       </c>
@@ -22234,14 +22661,22 @@
       <c r="H38">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>2.5056233411796569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
+      <c r="C39" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
@@ -22254,14 +22689,22 @@
       <c r="H39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
+      <c r="C40" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
@@ -22274,14 +22717,22 @@
       <c r="H40" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41">
         <v>0.55285715999999996</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.44714284000000004</v>
+      </c>
       <c r="D41" t="s">
         <v>72</v>
       </c>
@@ -22294,14 +22745,22 @@
       <c r="H41">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>2.4515705324719672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
       </c>
+      <c r="C42" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
@@ -22314,14 +22773,22 @@
       <c r="H42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
+      <c r="C43" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
@@ -22334,14 +22801,22 @@
       <c r="H43" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
         <v>0.51285714000000004</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.48714285999999996</v>
+      </c>
       <c r="D44" t="s">
         <v>72</v>
       </c>
@@ -22354,14 +22829,22 @@
       <c r="H44">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>2.5102069205869832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
+      <c r="C45" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
@@ -22374,14 +22857,22 @@
       <c r="H45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
+      <c r="C46" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
@@ -22394,14 +22885,22 @@
       <c r="H46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47">
         <v>0.53048485999999995</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0.46951514000000005</v>
+      </c>
       <c r="D47" t="s">
         <v>72</v>
       </c>
@@ -22414,14 +22913,22 @@
       <c r="H47">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2.4543463828105101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
+      <c r="C48" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
@@ -22434,14 +22941,22 @@
       <c r="H48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
+      <c r="C49" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
@@ -22454,14 +22969,22 @@
       <c r="H49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50">
         <v>0.52130679999999996</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.47869320000000004</v>
+      </c>
       <c r="D50" t="s">
         <v>72</v>
       </c>
@@ -22474,14 +22997,22 @@
       <c r="H50">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>2.4568434459979307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
       </c>
+      <c r="C51" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
@@ -22494,14 +23025,22 @@
       <c r="H51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
+      <c r="C52" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D52" t="s">
         <v>20</v>
       </c>
@@ -22514,14 +23053,22 @@
       <c r="H52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53">
         <v>0.51278405999999999</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0.48721594000000001</v>
+      </c>
       <c r="D53" t="s">
         <v>72</v>
       </c>
@@ -22534,14 +23081,22 @@
       <c r="H53">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>2.5016275243277319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
       </c>
+      <c r="C54" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
@@ -22554,14 +23109,22 @@
       <c r="H54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
+      <c r="C55" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
@@ -22574,14 +23137,22 @@
       <c r="H55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56">
         <v>0.54285717</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0.45714283</v>
+      </c>
       <c r="D56" t="s">
         <v>72</v>
       </c>
@@ -22594,14 +23165,22 @@
       <c r="H56">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>2.4634398556029402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
+      <c r="C57" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
@@ -22614,14 +23193,22 @@
       <c r="H57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
       </c>
+      <c r="C58" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D58" t="s">
         <v>22</v>
       </c>
@@ -22634,14 +23221,22 @@
       <c r="H58" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59">
         <v>0.51428574000000005</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0.48571425999999995</v>
+      </c>
       <c r="D59" t="s">
         <v>72</v>
       </c>
@@ -22654,14 +23249,22 @@
       <c r="H59">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>2.5100322303110829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
+      <c r="C60" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
@@ -22674,14 +23277,22 @@
       <c r="H60" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
       </c>
+      <c r="C61" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D61" t="s">
         <v>23</v>
       </c>
@@ -22694,14 +23305,22 @@
       <c r="H61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62">
         <v>0.52808449999999996</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0.47191550000000004</v>
+      </c>
       <c r="D62" t="s">
         <v>72</v>
       </c>
@@ -22714,14 +23333,22 @@
       <c r="H62">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>2.4562504171940351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
       </c>
+      <c r="C63" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
@@ -22734,14 +23361,22 @@
       <c r="H63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
+      <c r="C64" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D64" t="s">
         <v>24</v>
       </c>
@@ -22754,14 +23389,22 @@
       <c r="H64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65">
         <v>0.51704543999999997</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>0.48295456000000003</v>
+      </c>
       <c r="D65" t="s">
         <v>72</v>
       </c>
@@ -22774,14 +23417,22 @@
       <c r="H65">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>2.4593536242437319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
+      <c r="C66" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
@@ -22794,14 +23445,22 @@
       <c r="H66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
+      <c r="C67" t="e">
+        <f t="shared" ref="C67:C130" si="3">IF(B67&gt;0,1-B67,10)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
@@ -22814,14 +23473,22 @@
       <c r="H67" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="e">
+        <f t="shared" ref="I67:I130" si="4">H67+E67+C67</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68">
         <v>0.50568179999999996</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>0.49431820000000004</v>
+      </c>
       <c r="D68" t="s">
         <v>72</v>
       </c>
@@ -22834,14 +23501,22 @@
       <c r="H68">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>2.5133733952603419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
+      <c r="C69" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
@@ -22854,14 +23529,22 @@
       <c r="H69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
+      <c r="C70" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D70" t="s">
         <v>26</v>
       </c>
@@ -22874,14 +23557,22 @@
       <c r="H70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71">
         <v>0.55857146000000002</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>0.44142853999999998</v>
+      </c>
       <c r="D71" t="s">
         <v>72</v>
       </c>
@@ -22894,14 +23585,22 @@
       <c r="H71">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>2.4475415016915019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
+      <c r="C72" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
@@ -22914,14 +23613,22 @@
       <c r="H72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
+      <c r="C73" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D73" t="s">
         <v>27</v>
       </c>
@@ -22934,14 +23641,22 @@
       <c r="H73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74">
         <v>0.52142860000000002</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>0.47857139999999998</v>
+      </c>
       <c r="D74" t="s">
         <v>72</v>
       </c>
@@ -22954,14 +23669,22 @@
       <c r="H74">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>2.5004883467188148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>71</v>
       </c>
+      <c r="C75" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
@@ -22974,14 +23697,22 @@
       <c r="H75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
       </c>
+      <c r="C76" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D76" t="s">
         <v>68</v>
       </c>
@@ -22994,14 +23725,22 @@
       <c r="H76" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77">
         <v>0.53288524999999998</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0.46711475000000002</v>
+      </c>
       <c r="D77" t="s">
         <v>72</v>
       </c>
@@ -23014,14 +23753,22 @@
       <c r="H77">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>2.4487662827972949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>71</v>
       </c>
+      <c r="C78" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
@@ -23034,14 +23781,22 @@
       <c r="H78" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
       </c>
+      <c r="C79" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
@@ -23054,14 +23809,22 @@
       <c r="H79" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80">
         <v>0.52130679999999996</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>0.47869320000000004</v>
+      </c>
       <c r="D80" t="s">
         <v>72</v>
       </c>
@@ -23074,14 +23837,22 @@
       <c r="H80">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>2.4546056383772759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>71</v>
       </c>
+      <c r="C81" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
@@ -23094,14 +23865,22 @@
       <c r="H81" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>29</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
       </c>
+      <c r="C82" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
@@ -23114,14 +23893,22 @@
       <c r="H82" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83">
         <v>0.515625</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>0.484375</v>
+      </c>
       <c r="D83" t="s">
         <v>72</v>
       </c>
@@ -23134,14 +23921,22 @@
       <c r="H83">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="4"/>
+        <v>2.49068492052151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
       </c>
+      <c r="C84" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
@@ -23154,14 +23949,22 @@
       <c r="H84" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>30</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
       </c>
+      <c r="C85" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D85" t="s">
         <v>30</v>
       </c>
@@ -23174,14 +23977,22 @@
       <c r="H85" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86">
         <v>0.55428569999999999</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>0.44571430000000001</v>
+      </c>
       <c r="D86" t="s">
         <v>72</v>
       </c>
@@ -23194,14 +24005,22 @@
       <c r="H86">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>2.4494921315449303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
       </c>
+      <c r="C87" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D87" t="s">
         <v>4</v>
       </c>
@@ -23214,14 +24033,22 @@
       <c r="H87" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
       </c>
+      <c r="C88" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D88" t="s">
         <v>31</v>
       </c>
@@ -23234,14 +24061,22 @@
       <c r="H88" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89">
         <v>0.51142860000000001</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>0.48857139999999999</v>
+      </c>
       <c r="D89" t="s">
         <v>72</v>
       </c>
@@ -23254,14 +24089,22 @@
       <c r="H89">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="4"/>
+        <v>2.5123802073401311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
       </c>
+      <c r="C90" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D90" t="s">
         <v>4</v>
       </c>
@@ -23274,14 +24117,22 @@
       <c r="H90" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
       <c r="B91" t="s">
         <v>71</v>
       </c>
+      <c r="C91" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D91" t="s">
         <v>32</v>
       </c>
@@ -23294,14 +24145,22 @@
       <c r="H91" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92">
         <v>0.53432550000000001</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>0.46567449999999999</v>
+      </c>
       <c r="D92" t="s">
         <v>72</v>
       </c>
@@ -23314,14 +24173,22 @@
       <c r="H92">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>2.448988444111627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
       </c>
+      <c r="C93" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D93" t="s">
         <v>4</v>
       </c>
@@ -23334,14 +24201,22 @@
       <c r="H93" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>32</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
       </c>
+      <c r="C94" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D94" t="s">
         <v>32</v>
       </c>
@@ -23354,14 +24229,22 @@
       <c r="H94" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95">
         <v>0.51704543999999997</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>0.48295456000000003</v>
+      </c>
       <c r="D95" t="s">
         <v>72</v>
       </c>
@@ -23374,14 +24257,22 @@
       <c r="H95">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>2.4654021654211347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
       </c>
+      <c r="C96" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
@@ -23394,14 +24285,22 @@
       <c r="H96" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>33</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
       </c>
+      <c r="C97" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D97" t="s">
         <v>33</v>
       </c>
@@ -23414,14 +24313,22 @@
       <c r="H97" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98">
         <v>0.51278405999999999</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>0.48721594000000001</v>
+      </c>
       <c r="D98" t="s">
         <v>72</v>
       </c>
@@ -23434,14 +24341,22 @@
       <c r="H98">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>2.5021373391103081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
       <c r="B99" t="s">
         <v>71</v>
       </c>
+      <c r="C99" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D99" t="s">
         <v>4</v>
       </c>
@@ -23454,14 +24369,22 @@
       <c r="H99" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
       </c>
+      <c r="C100" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D100" t="s">
         <v>34</v>
       </c>
@@ -23474,14 +24397,22 @@
       <c r="H100" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101">
         <v>0.54428569999999998</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>0.45571430000000002</v>
+      </c>
       <c r="D101" t="s">
         <v>72</v>
       </c>
@@ -23494,14 +24425,22 @@
       <c r="H101">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>2.4567621107493802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102" t="s">
         <v>71</v>
       </c>
+      <c r="C102" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D102" t="s">
         <v>4</v>
       </c>
@@ -23514,14 +24453,22 @@
       <c r="H102" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>35</v>
       </c>
       <c r="B103" t="s">
         <v>71</v>
       </c>
+      <c r="C103" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D103" t="s">
         <v>35</v>
       </c>
@@ -23534,14 +24481,22 @@
       <c r="H103" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104">
         <v>0.52</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
       <c r="D104" t="s">
         <v>72</v>
       </c>
@@ -23554,14 +24509,22 @@
       <c r="H104">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <f t="shared" si="4"/>
+        <v>2.4988242708285742</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
       <c r="B105" t="s">
         <v>71</v>
       </c>
+      <c r="C105" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D105" t="s">
         <v>4</v>
       </c>
@@ -23574,14 +24537,22 @@
       <c r="H105" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
       </c>
+      <c r="C106" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D106" t="s">
         <v>36</v>
       </c>
@@ -23594,14 +24565,22 @@
       <c r="H106" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107">
         <v>0.53480559999999999</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>0.46519440000000001</v>
+      </c>
       <c r="D107" t="s">
         <v>72</v>
       </c>
@@ -23614,14 +24593,22 @@
       <c r="H107">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <f t="shared" si="4"/>
+        <v>2.4484762750386202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
       </c>
+      <c r="C108" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D108" t="s">
         <v>4</v>
       </c>
@@ -23634,14 +24621,22 @@
       <c r="H108" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>36</v>
       </c>
       <c r="B109" t="s">
         <v>71</v>
       </c>
+      <c r="C109" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D109" t="s">
         <v>36</v>
       </c>
@@ -23654,14 +24649,22 @@
       <c r="H109" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110">
         <v>0.53551139999999997</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>0.46448860000000003</v>
+      </c>
       <c r="D110" t="s">
         <v>72</v>
       </c>
@@ -23674,14 +24677,22 @@
       <c r="H110">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <f t="shared" si="4"/>
+        <v>2.4343253391562718</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
       <c r="B111" t="s">
         <v>71</v>
       </c>
+      <c r="C111" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D111" t="s">
         <v>4</v>
       </c>
@@ -23694,14 +24705,22 @@
       <c r="H111" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
       <c r="B112" t="s">
         <v>71</v>
       </c>
+      <c r="C112" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D112" t="s">
         <v>37</v>
       </c>
@@ -23714,14 +24733,22 @@
       <c r="H112" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113">
         <v>0.515625</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>0.484375</v>
+      </c>
       <c r="D113" t="s">
         <v>72</v>
       </c>
@@ -23734,14 +24761,22 @@
       <c r="H113">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <f t="shared" si="4"/>
+        <v>2.4988932522581622</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
       <c r="B114" t="s">
         <v>71</v>
       </c>
+      <c r="C114" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
@@ -23754,14 +24789,22 @@
       <c r="H114" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>38</v>
       </c>
       <c r="B115" t="s">
         <v>71</v>
       </c>
+      <c r="C115" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
@@ -23774,14 +24817,22 @@
       <c r="H115" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116">
         <v>0.54857140000000004</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>0.45142859999999996</v>
+      </c>
       <c r="D116" t="s">
         <v>72</v>
       </c>
@@ -23794,14 +24845,22 @@
       <c r="H116">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="4"/>
+        <v>2.4563714830051957</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
       <c r="B117" t="s">
         <v>71</v>
       </c>
+      <c r="C117" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
@@ -23814,14 +24873,22 @@
       <c r="H117" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>39</v>
       </c>
       <c r="B118" t="s">
         <v>71</v>
       </c>
+      <c r="C118" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D118" t="s">
         <v>39</v>
       </c>
@@ -23834,14 +24901,22 @@
       <c r="H118" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119">
         <v>0.52142860000000002</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>0.47857139999999998</v>
+      </c>
       <c r="D119" t="s">
         <v>72</v>
       </c>
@@ -23854,14 +24929,22 @@
       <c r="H119">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <f t="shared" si="4"/>
+        <v>2.5014797388544348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
       <c r="B120" t="s">
         <v>71</v>
       </c>
+      <c r="C120" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D120" t="s">
         <v>4</v>
       </c>
@@ -23874,14 +24957,22 @@
       <c r="H120" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>40</v>
       </c>
       <c r="B121" t="s">
         <v>71</v>
       </c>
+      <c r="C121" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D121" t="s">
         <v>40</v>
       </c>
@@ -23894,14 +24985,22 @@
       <c r="H121" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122">
         <v>0.53576570000000001</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>0.46423429999999999</v>
+      </c>
       <c r="D122" t="s">
         <v>72</v>
       </c>
@@ -23914,14 +25013,22 @@
       <c r="H122">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <f t="shared" si="4"/>
+        <v>2.4502433186302817</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>71</v>
       </c>
+      <c r="C123" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
@@ -23934,14 +25041,22 @@
       <c r="H123" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>40</v>
       </c>
       <c r="B124" t="s">
         <v>71</v>
       </c>
+      <c r="C124" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D124" t="s">
         <v>40</v>
       </c>
@@ -23954,14 +25069,22 @@
       <c r="H124" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
       <c r="B125">
         <v>0.52272724999999998</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>0.47727275000000002</v>
+      </c>
       <c r="D125" t="s">
         <v>72</v>
       </c>
@@ -23974,14 +25097,22 @@
       <c r="H125">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <f t="shared" si="4"/>
+        <v>2.4530990244446489</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
       <c r="B126" t="s">
         <v>71</v>
       </c>
+      <c r="C126" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D126" t="s">
         <v>4</v>
       </c>
@@ -23994,14 +25125,22 @@
       <c r="H126" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>41</v>
       </c>
       <c r="B127" t="s">
         <v>71</v>
       </c>
+      <c r="C127" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D127" t="s">
         <v>41</v>
       </c>
@@ -24014,14 +25153,22 @@
       <c r="H127" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128">
         <v>0.51988639999999997</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>0.48011360000000003</v>
+      </c>
       <c r="D128" t="s">
         <v>72</v>
       </c>
@@ -24034,14 +25181,22 @@
       <c r="H128">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <f t="shared" si="4"/>
+        <v>2.4936837238830223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
       <c r="B129" t="s">
         <v>71</v>
       </c>
+      <c r="C129" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
@@ -24054,14 +25209,22 @@
       <c r="H129" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>42</v>
       </c>
       <c r="B130" t="s">
         <v>71</v>
       </c>
+      <c r="C130" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D130" t="s">
         <v>42</v>
       </c>
@@ -24074,14 +25237,22 @@
       <c r="H130" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
       <c r="B131">
         <v>0.56000000000000005</v>
       </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="5">IF(B131&gt;0,1-B131,10)</f>
+        <v>0.43999999999999995</v>
+      </c>
       <c r="D131" t="s">
         <v>72</v>
       </c>
@@ -24094,14 +25265,22 @@
       <c r="H131">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="6">H131+E131+C131</f>
+        <v>2.4425258179297309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
       <c r="B132" t="s">
         <v>71</v>
       </c>
+      <c r="C132" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
@@ -24114,14 +25293,22 @@
       <c r="H132" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>43</v>
       </c>
       <c r="B133" t="s">
         <v>71</v>
       </c>
+      <c r="C133" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D133" t="s">
         <v>43</v>
       </c>
@@ -24134,14 +25321,22 @@
       <c r="H133" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3</v>
       </c>
       <c r="B134">
         <v>0.52142860000000002</v>
       </c>
+      <c r="C134">
+        <f t="shared" si="5"/>
+        <v>0.47857139999999998</v>
+      </c>
       <c r="D134" t="s">
         <v>72</v>
       </c>
@@ -24154,14 +25349,22 @@
       <c r="H134">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <f t="shared" si="6"/>
+        <v>2.5002363038803099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
       <c r="B135" t="s">
         <v>71</v>
       </c>
+      <c r="C135" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
@@ -24174,14 +25377,22 @@
       <c r="H135" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>44</v>
       </c>
       <c r="B136" t="s">
         <v>71</v>
       </c>
+      <c r="C136" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D136" t="s">
         <v>44</v>
       </c>
@@ -24194,14 +25405,22 @@
       <c r="H136" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137">
         <v>0.52184350000000002</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="5"/>
+        <v>0.47815649999999998</v>
+      </c>
       <c r="D137" t="s">
         <v>72</v>
       </c>
@@ -24214,14 +25433,22 @@
       <c r="H137">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <f t="shared" si="6"/>
+        <v>2.4666502713352161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
       <c r="B138" t="s">
         <v>71</v>
       </c>
+      <c r="C138" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D138" t="s">
         <v>4</v>
       </c>
@@ -24234,14 +25461,22 @@
       <c r="H138" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>44</v>
       </c>
       <c r="B139" t="s">
         <v>71</v>
       </c>
+      <c r="C139" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D139" t="s">
         <v>44</v>
       </c>
@@ -24254,14 +25489,22 @@
       <c r="H139" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>3</v>
       </c>
       <c r="B140">
         <v>0.515625</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="5"/>
+        <v>0.484375</v>
+      </c>
       <c r="D140" t="s">
         <v>72</v>
       </c>
@@ -24274,14 +25517,22 @@
       <c r="H140">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <f t="shared" si="6"/>
+        <v>2.4635069995206309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
       <c r="B141" t="s">
         <v>71</v>
       </c>
+      <c r="C141" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D141" t="s">
         <v>4</v>
       </c>
@@ -24294,14 +25545,22 @@
       <c r="H141" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>45</v>
       </c>
       <c r="B142" t="s">
         <v>71</v>
       </c>
+      <c r="C142" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D142" t="s">
         <v>45</v>
       </c>
@@ -24314,14 +25573,22 @@
       <c r="H142" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>3</v>
       </c>
       <c r="B143">
         <v>0.51704543999999997</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="5"/>
+        <v>0.48295456000000003</v>
+      </c>
       <c r="D143" t="s">
         <v>72</v>
       </c>
@@ -24334,14 +25601,22 @@
       <c r="H143">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <f t="shared" si="6"/>
+        <v>2.4965340797424802</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
       <c r="B144" t="s">
         <v>71</v>
       </c>
+      <c r="C144" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D144" t="s">
         <v>4</v>
       </c>
@@ -24354,14 +25629,22 @@
       <c r="H144" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>46</v>
       </c>
       <c r="B145" t="s">
         <v>71</v>
       </c>
+      <c r="C145" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D145" t="s">
         <v>46</v>
       </c>
@@ -24374,14 +25657,22 @@
       <c r="H145" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>3</v>
       </c>
       <c r="B146">
         <v>0.54857140000000004</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="5"/>
+        <v>0.45142859999999996</v>
+      </c>
       <c r="D146" t="s">
         <v>72</v>
       </c>
@@ -24394,14 +25685,22 @@
       <c r="H146">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <f t="shared" si="6"/>
+        <v>2.4609881999350409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>71</v>
       </c>
+      <c r="C147" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D147" t="s">
         <v>4</v>
       </c>
@@ -24414,14 +25713,22 @@
       <c r="H147" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>47</v>
       </c>
       <c r="B148" t="s">
         <v>71</v>
       </c>
+      <c r="C148" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D148" t="s">
         <v>47</v>
       </c>
@@ -24434,14 +25741,22 @@
       <c r="H148" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="B149">
         <v>0.51285714000000004</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="5"/>
+        <v>0.48714285999999996</v>
+      </c>
       <c r="D149" t="s">
         <v>72</v>
       </c>
@@ -24454,14 +25769,22 @@
       <c r="H149">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <f t="shared" si="6"/>
+        <v>2.5066749775382342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
       <c r="B150" t="s">
         <v>71</v>
       </c>
+      <c r="C150" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D150" t="s">
         <v>4</v>
       </c>
@@ -24474,14 +25797,22 @@
       <c r="H150" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>48</v>
       </c>
       <c r="B151" t="s">
         <v>71</v>
       </c>
+      <c r="C151" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D151" t="s">
         <v>48</v>
       </c>
@@ -24494,14 +25825,22 @@
       <c r="H151" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>3</v>
       </c>
       <c r="B152">
         <v>0.52904459999999998</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="5"/>
+        <v>0.47095540000000002</v>
+      </c>
       <c r="D152" t="s">
         <v>72</v>
       </c>
@@ -24514,14 +25853,22 @@
       <c r="H152">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <f t="shared" si="6"/>
+        <v>2.4577352134204613</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
       <c r="B153" t="s">
         <v>71</v>
       </c>
+      <c r="C153" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D153" t="s">
         <v>4</v>
       </c>
@@ -24534,14 +25881,22 @@
       <c r="H153" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>48</v>
       </c>
       <c r="B154" t="s">
         <v>71</v>
       </c>
+      <c r="C154" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D154" t="s">
         <v>48</v>
       </c>
@@ -24554,14 +25909,22 @@
       <c r="H154" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155">
         <v>0.51278405999999999</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="5"/>
+        <v>0.48721594000000001</v>
+      </c>
       <c r="D155" t="s">
         <v>72</v>
       </c>
@@ -24574,14 +25937,22 @@
       <c r="H155">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <f t="shared" si="6"/>
+        <v>2.463292616266652</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>4</v>
       </c>
       <c r="B156" t="s">
         <v>71</v>
       </c>
+      <c r="C156" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D156" t="s">
         <v>4</v>
       </c>
@@ -24594,14 +25965,22 @@
       <c r="H156" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>49</v>
       </c>
       <c r="B157" t="s">
         <v>71</v>
       </c>
+      <c r="C157" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D157" t="s">
         <v>49</v>
       </c>
@@ -24614,14 +25993,22 @@
       <c r="H157" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158">
         <v>0.50710224999999998</v>
       </c>
+      <c r="C158">
+        <f t="shared" si="5"/>
+        <v>0.49289775000000002</v>
+      </c>
       <c r="D158" t="s">
         <v>72</v>
       </c>
@@ -24634,14 +26021,22 @@
       <c r="H158">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <f t="shared" si="6"/>
+        <v>2.5098992536780962</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
       <c r="B159" t="s">
         <v>71</v>
       </c>
+      <c r="C159" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
@@ -24654,14 +26049,22 @@
       <c r="H159" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>50</v>
       </c>
       <c r="B160" t="s">
         <v>71</v>
       </c>
+      <c r="C160" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D160" t="s">
         <v>50</v>
       </c>
@@ -24674,14 +26077,22 @@
       <c r="H160" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161">
         <v>0.54142857</v>
       </c>
+      <c r="C161">
+        <f t="shared" si="5"/>
+        <v>0.45857143</v>
+      </c>
       <c r="D161" t="s">
         <v>72</v>
       </c>
@@ -24694,14 +26105,22 @@
       <c r="H161">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <f t="shared" si="6"/>
+        <v>2.4659578861394822</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
       <c r="B162" t="s">
         <v>71</v>
       </c>
+      <c r="C162" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D162" t="s">
         <v>4</v>
       </c>
@@ -24714,14 +26133,22 @@
       <c r="H162" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>51</v>
       </c>
       <c r="B163" t="s">
         <v>71</v>
       </c>
+      <c r="C163" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D163" t="s">
         <v>51</v>
       </c>
@@ -24734,14 +26161,22 @@
       <c r="H163" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>3</v>
       </c>
       <c r="B164">
         <v>0.53142860000000003</v>
       </c>
+      <c r="C164">
+        <f t="shared" si="5"/>
+        <v>0.46857139999999997</v>
+      </c>
       <c r="D164" t="s">
         <v>72</v>
       </c>
@@ -24754,14 +26189,22 @@
       <c r="H164">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <f t="shared" si="6"/>
+        <v>2.4928329999846319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
       <c r="B165" t="s">
         <v>71</v>
       </c>
+      <c r="C165" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D165" t="s">
         <v>4</v>
       </c>
@@ -24774,14 +26217,22 @@
       <c r="H165" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>52</v>
       </c>
       <c r="B166" t="s">
         <v>71</v>
       </c>
+      <c r="C166" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D166" t="s">
         <v>52</v>
       </c>
@@ -24794,14 +26245,22 @@
       <c r="H166" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167">
         <v>0.53144499999999995</v>
       </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>0.46855500000000005</v>
+      </c>
       <c r="D167" t="s">
         <v>72</v>
       </c>
@@ -24814,14 +26273,22 @@
       <c r="H167">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <f t="shared" si="6"/>
+        <v>2.4513813943705749</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
       <c r="B168" t="s">
         <v>71</v>
       </c>
+      <c r="C168" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D168" t="s">
         <v>4</v>
       </c>
@@ -24834,14 +26301,22 @@
       <c r="H168" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>52</v>
       </c>
       <c r="B169" t="s">
         <v>71</v>
       </c>
+      <c r="C169" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D169" t="s">
         <v>52</v>
       </c>
@@ -24854,14 +26329,22 @@
       <c r="H169" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>3</v>
       </c>
       <c r="B170">
         <v>0.52414775000000002</v>
       </c>
+      <c r="C170">
+        <f t="shared" si="5"/>
+        <v>0.47585224999999998</v>
+      </c>
       <c r="D170" t="s">
         <v>72</v>
       </c>
@@ -24874,14 +26357,22 @@
       <c r="H170">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <f t="shared" si="6"/>
+        <v>2.45241269111016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
       <c r="B171" t="s">
         <v>71</v>
       </c>
+      <c r="C171" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
@@ -24894,14 +26385,22 @@
       <c r="H171" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>53</v>
       </c>
       <c r="B172" t="s">
         <v>71</v>
       </c>
+      <c r="C172" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D172" t="s">
         <v>53</v>
       </c>
@@ -24914,14 +26413,22 @@
       <c r="H172" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>3</v>
       </c>
       <c r="B173">
         <v>0.50710224999999998</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="5"/>
+        <v>0.49289775000000002</v>
+      </c>
       <c r="D173" t="s">
         <v>72</v>
       </c>
@@ -24934,14 +26441,22 @@
       <c r="H173">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <f t="shared" si="6"/>
+        <v>2.5141379458750288</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" t="s">
         <v>71</v>
       </c>
+      <c r="C174" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D174" t="s">
         <v>4</v>
       </c>
@@ -24954,14 +26469,22 @@
       <c r="H174" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>54</v>
       </c>
       <c r="B175" t="s">
         <v>71</v>
       </c>
+      <c r="C175" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D175" t="s">
         <v>54</v>
       </c>
@@ -24974,14 +26497,22 @@
       <c r="H175" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>3</v>
       </c>
       <c r="B176">
         <v>0.55714284999999997</v>
       </c>
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>0.44285715000000003</v>
+      </c>
       <c r="D176" t="s">
         <v>72</v>
       </c>
@@ -24994,14 +26525,22 @@
       <c r="H176">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <f t="shared" si="6"/>
+        <v>2.4454719872964041</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
       <c r="B177" t="s">
         <v>71</v>
       </c>
+      <c r="C177" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D177" t="s">
         <v>4</v>
       </c>
@@ -25014,14 +26553,22 @@
       <c r="H177" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>55</v>
       </c>
       <c r="B178" t="s">
         <v>71</v>
       </c>
+      <c r="C178" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D178" t="s">
         <v>55</v>
       </c>
@@ -25034,14 +26581,22 @@
       <c r="H178" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>3</v>
       </c>
       <c r="B179">
         <v>0.51</v>
       </c>
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>0.49</v>
+      </c>
       <c r="D179" t="s">
         <v>72</v>
       </c>
@@ -25054,14 +26609,22 @@
       <c r="H179">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <f t="shared" si="6"/>
+        <v>2.5182370986609319</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
       <c r="B180" t="s">
         <v>71</v>
       </c>
+      <c r="C180" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D180" t="s">
         <v>4</v>
       </c>
@@ -25074,14 +26637,22 @@
       <c r="H180" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>56</v>
       </c>
       <c r="B181" t="s">
         <v>71</v>
       </c>
+      <c r="C181" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D181" t="s">
         <v>56</v>
       </c>
@@ -25094,14 +26665,22 @@
       <c r="H181" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>3</v>
       </c>
       <c r="B182">
         <v>0.53336530000000004</v>
       </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>0.46663469999999996</v>
+      </c>
       <c r="D182" t="s">
         <v>72</v>
       </c>
@@ -25114,14 +26693,22 @@
       <c r="H182">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <f t="shared" si="6"/>
+        <v>2.4509160360235436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>71</v>
       </c>
+      <c r="C183" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D183" t="s">
         <v>4</v>
       </c>
@@ -25134,14 +26721,22 @@
       <c r="H183" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>56</v>
       </c>
       <c r="B184" t="s">
         <v>71</v>
       </c>
+      <c r="C184" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D184" t="s">
         <v>56</v>
       </c>
@@ -25154,14 +26749,22 @@
       <c r="H184" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>3</v>
       </c>
       <c r="B185">
         <v>0.53267043999999997</v>
       </c>
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>0.46732956000000003</v>
+      </c>
       <c r="D185" t="s">
         <v>72</v>
       </c>
@@ -25174,14 +26777,22 @@
       <c r="H185">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <f t="shared" si="6"/>
+        <v>2.4376041250744689</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>71</v>
       </c>
+      <c r="C186" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D186" t="s">
         <v>4</v>
       </c>
@@ -25194,14 +26805,22 @@
       <c r="H186" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>57</v>
       </c>
       <c r="B187" t="s">
         <v>71</v>
       </c>
+      <c r="C187" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D187" t="s">
         <v>57</v>
       </c>
@@ -25214,14 +26833,22 @@
       <c r="H187" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>3</v>
       </c>
       <c r="B188">
         <v>0.515625</v>
       </c>
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>0.484375</v>
+      </c>
       <c r="D188" t="s">
         <v>72</v>
       </c>
@@ -25234,14 +26861,22 @@
       <c r="H188">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <f t="shared" si="6"/>
+        <v>2.4872700945618709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>71</v>
       </c>
+      <c r="C189" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D189" t="s">
         <v>4</v>
       </c>
@@ -25254,14 +26889,22 @@
       <c r="H189" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>58</v>
       </c>
       <c r="B190" t="s">
         <v>71</v>
       </c>
+      <c r="C190" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D190" t="s">
         <v>58</v>
       </c>
@@ -25274,14 +26917,22 @@
       <c r="H190" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>3</v>
       </c>
       <c r="B191">
         <v>0.55714284999999997</v>
       </c>
+      <c r="C191">
+        <f t="shared" si="5"/>
+        <v>0.44285715000000003</v>
+      </c>
       <c r="D191" t="s">
         <v>72</v>
       </c>
@@ -25294,14 +26945,22 @@
       <c r="H191">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <f t="shared" si="6"/>
+        <v>2.446724986602129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>71</v>
       </c>
+      <c r="C192" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D192" t="s">
         <v>4</v>
       </c>
@@ -25314,14 +26973,22 @@
       <c r="H192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>59</v>
       </c>
       <c r="B193" t="s">
         <v>71</v>
       </c>
+      <c r="C193" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D193" t="s">
         <v>59</v>
       </c>
@@ -25334,14 +27001,22 @@
       <c r="H193" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>3</v>
       </c>
       <c r="B194">
         <v>0.50857145000000004</v>
       </c>
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>0.49142854999999996</v>
+      </c>
       <c r="D194" t="s">
         <v>72</v>
       </c>
@@ -25354,14 +27029,22 @@
       <c r="H194">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <f t="shared" si="6"/>
+        <v>2.5170193226639883</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
       <c r="B195" t="s">
         <v>71</v>
       </c>
+      <c r="C195" t="e">
+        <f t="shared" ref="C195:C210" si="7">IF(B195&gt;0,1-B195,10)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D195" t="s">
         <v>4</v>
       </c>
@@ -25374,14 +27057,22 @@
       <c r="H195" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195" t="e">
+        <f t="shared" ref="I195:I210" si="8">H195+E195+C195</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>60</v>
       </c>
       <c r="B196" t="s">
         <v>71</v>
       </c>
+      <c r="C196" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D196" t="s">
         <v>60</v>
       </c>
@@ -25394,14 +27085,22 @@
       <c r="H196" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>3</v>
       </c>
       <c r="B197">
         <v>0.53384540000000003</v>
       </c>
+      <c r="C197">
+        <f t="shared" si="7"/>
+        <v>0.46615459999999997</v>
+      </c>
       <c r="D197" t="s">
         <v>72</v>
       </c>
@@ -25414,14 +27113,22 @@
       <c r="H197">
         <v>1.0107216999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <f t="shared" si="8"/>
+        <v>2.4489710337276467</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>71</v>
       </c>
+      <c r="C198" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D198" t="s">
         <v>4</v>
       </c>
@@ -25434,14 +27141,22 @@
       <c r="H198" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>60</v>
       </c>
       <c r="B199" t="s">
         <v>71</v>
       </c>
+      <c r="C199" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D199" t="s">
         <v>60</v>
       </c>
@@ -25454,14 +27169,22 @@
       <c r="H199" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>3</v>
       </c>
       <c r="B200">
         <v>0.52414775000000002</v>
       </c>
+      <c r="C200">
+        <f t="shared" si="7"/>
+        <v>0.47585224999999998</v>
+      </c>
       <c r="D200" t="s">
         <v>72</v>
       </c>
@@ -25474,14 +27197,22 @@
       <c r="H200">
         <v>1.0071022999999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <f t="shared" si="8"/>
+        <v>2.450970085311265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>71</v>
       </c>
+      <c r="C201" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D201" t="s">
         <v>4</v>
       </c>
@@ -25494,14 +27225,22 @@
       <c r="H201" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>61</v>
       </c>
       <c r="B202" t="s">
         <v>71</v>
       </c>
+      <c r="C202" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D202" t="s">
         <v>61</v>
       </c>
@@ -25514,14 +27253,22 @@
       <c r="H202" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>3</v>
       </c>
       <c r="B203">
         <v>0.51846594000000001</v>
       </c>
+      <c r="C203">
+        <f t="shared" si="7"/>
+        <v>0.48153405999999999</v>
+      </c>
       <c r="D203" t="s">
         <v>72</v>
       </c>
@@ -25534,14 +27281,22 @@
       <c r="H203">
         <v>1.0260419000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203">
+        <f t="shared" si="8"/>
+        <v>2.4950331866231878</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>71</v>
       </c>
+      <c r="C204" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D204" t="s">
         <v>4</v>
       </c>
@@ -25554,14 +27309,22 @@
       <c r="H204" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>62</v>
       </c>
       <c r="B205" t="s">
         <v>71</v>
       </c>
+      <c r="C205" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D205" t="s">
         <v>62</v>
       </c>
@@ -25574,14 +27337,22 @@
       <c r="H205" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>3</v>
       </c>
       <c r="B206">
         <v>0.54714286000000001</v>
       </c>
+      <c r="C206">
+        <f t="shared" si="7"/>
+        <v>0.45285713999999999</v>
+      </c>
       <c r="D206" t="s">
         <v>72</v>
       </c>
@@ -25594,14 +27365,22 @@
       <c r="H206">
         <v>1.0528572</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <f t="shared" si="8"/>
+        <v>2.4604449249620268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>71</v>
       </c>
+      <c r="C207" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D207" t="s">
         <v>4</v>
       </c>
@@ -25614,14 +27393,22 @@
       <c r="H207" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I207" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>63</v>
       </c>
       <c r="B208" t="s">
         <v>71</v>
       </c>
+      <c r="C208" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D208" t="s">
         <v>63</v>
       </c>
@@ -25634,14 +27421,22 @@
       <c r="H208" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I208" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209">
         <v>0.52</v>
       </c>
+      <c r="C209">
+        <f t="shared" si="7"/>
+        <v>0.48</v>
+      </c>
       <c r="D209" t="s">
         <v>72</v>
       </c>
@@ -25654,14 +27449,22 @@
       <c r="H209">
         <v>1.0395236999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <f t="shared" si="8"/>
+        <v>2.5010781319152828</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>71</v>
       </c>
+      <c r="C210" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="D210" t="s">
         <v>4</v>
       </c>
@@ -25673,19 +27476,27 @@
       </c>
       <c r="H210" t="s">
         <v>71</v>
+      </c>
+      <c r="I210" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" bottom="1" rank="40"/>
+    <cfRule type="top10" dxfId="6" priority="4" percent="1" bottom="1" rank="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="40"/>
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="40"/>
+    <cfRule type="top10" dxfId="5" priority="2" percent="1" rank="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I210">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
